--- a/data/macro/China/China CPI.xlsx
+++ b/data/macro/China/China CPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\China\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\China\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65384EEB-A1D4-45BA-8C1A-C8D06984085F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7565B712-3705-4B4C-9216-C8AF734F3C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6705" yWindow="3255" windowWidth="27645" windowHeight="16680" xr2:uid="{C2D375C2-0F84-A74D-B79F-82236B74EEEF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -99,6 +99,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,7 +509,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I476" sqref="I476"/>
+      <selection pane="bottomRight" activeCell="F479" sqref="F479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12052,8 +12054,8 @@
       <c r="D481" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E481" s="1" t="s">
-        <v>4</v>
+      <c r="E481" s="3">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F481" s="3">
         <v>8.0000000000000002E-3</v>
